--- a/KATO/Template/F0570_TanaoroshiPreSheet.xlsx
+++ b/KATO/Template/F0570_TanaoroshiPreSheet.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\suyama\00_project\KATO\KATO\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Template1" sheetId="2" r:id="rId1"/>
+    <sheet name="Template1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -22,21 +17,57 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>棚卸プレシート</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>棚番</t>
+    <rPh sb="0" eb="1">
+      <t>タナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メーカー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>品　名　・　型　番</t>
+    <t>品名・型番</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>帳簿在庫数</t>
+    <rPh sb="0" eb="2">
+      <t>チョウボ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>棚　卸　数</t>
+    <t>棚卸数</t>
+    <rPh sb="0" eb="2">
+      <t>タナオロシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -45,28 +76,32 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="ＭＳ 明朝"/>
-      <family val="2"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14.5"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="ＭＳ 明朝"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="2"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,27 +137,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -130,7 +157,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -143,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -185,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +244,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,371 +465,369 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1"/>
-    <col min="4" max="5" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E1" s="6"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.74803149606299213"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <evenHeader>&amp;L（№57）&amp;R（ ADMIN-PC ）       2018/04/19 16:55:30       1 / 9</evenHeader>
-    <firstHeader>&amp;L（№57）&amp;R（ ADMIN-PC ）       2018/04/19 16:55:30       1 / 9</firstHeader>
-  </headerFooter>
 </worksheet>
 </file>